--- a/results/mp/tinybert/corona/confidence/42/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,316 +40,274 @@
     <t>name</t>
   </si>
   <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>kills</t>
+    <t>kill</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>fake</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>credit</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>funny</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>available</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>store</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>19</t>
@@ -358,13 +316,22 @@
     <t>to</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -722,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -844,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -862,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -891,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -909,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -941,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -959,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -983,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -991,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1009,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1033,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1041,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.92</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1059,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1083,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1091,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.76</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1133,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1141,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1159,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1183,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1191,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1209,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1233,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1241,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8506493506493507</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1259,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.96875</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1283,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1291,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8235294117647058</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1309,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.9583333333333334</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1333,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1341,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8181818181818182</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1359,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.95</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1383,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1391,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8181818181818182</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1409,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.9375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1433,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1441,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1459,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.9230769230769231</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1483,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1491,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1509,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.9166666666666666</v>
+        <v>0.8828125</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1533,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1541,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7777777777777778</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1559,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1583,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1591,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1609,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.896551724137931</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1641,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1659,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.8888888888888888</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1683,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1691,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.2538759689922481</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1709,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.8888888888888888</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1741,49 +1708,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6190476190476191</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>148</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L22">
+        <v>69</v>
+      </c>
+      <c r="M22">
+        <v>69</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>13</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L22">
-        <v>48</v>
-      </c>
-      <c r="M22">
-        <v>48</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1791,37 +1758,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5708154506437768</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>133</v>
       </c>
-      <c r="D23">
-        <v>133</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1833,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1841,187 +1808,115 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5625</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>345</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L24">
+        <v>88</v>
+      </c>
+      <c r="M24">
+        <v>88</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L25">
+        <v>42</v>
+      </c>
+      <c r="M25">
+        <v>42</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>9</v>
       </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24">
-        <v>0.88</v>
-      </c>
-      <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>22</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26">
+        <v>0.8125</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>14</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25">
-        <v>0.875</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.5</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>14</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L26">
-        <v>44</v>
-      </c>
-      <c r="M26">
-        <v>44</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.45</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>11</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="L27">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2033,45 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>15</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.8431372549019608</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2083,45 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.8235294117647058</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2133,95 +1980,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
+      <c r="J30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30">
+        <v>0.78125</v>
+      </c>
+      <c r="L30">
+        <v>125</v>
+      </c>
+      <c r="M30">
+        <v>125</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>0.375</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>15</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>9</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.3255813953488372</v>
-      </c>
-      <c r="C31">
-        <v>28</v>
-      </c>
-      <c r="D31">
-        <v>28</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>58</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.7948717948717948</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2233,45 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.3</v>
-      </c>
-      <c r="C32">
-        <v>24</v>
-      </c>
-      <c r="D32">
-        <v>24</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>56</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.7931034482758621</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2283,45 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.7887323943661971</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2333,45 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="C34">
-        <v>28</v>
-      </c>
-      <c r="D34">
-        <v>28</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>82</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.7878787878787878</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2386,404 +2113,356 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.25</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>30</v>
-      </c>
+    <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>0.75</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.75</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L37">
+        <v>47</v>
+      </c>
+      <c r="M37">
+        <v>47</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38">
+        <v>0.74</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>33</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41">
+        <v>0.6814621409921671</v>
+      </c>
+      <c r="L41">
+        <v>261</v>
+      </c>
+      <c r="M41">
+        <v>261</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>22</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L43">
+        <v>62</v>
+      </c>
+      <c r="M43">
+        <v>62</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45">
+        <v>0.6474576271186441</v>
+      </c>
+      <c r="L45">
+        <v>191</v>
+      </c>
+      <c r="M45">
+        <v>191</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L46">
+        <v>31</v>
+      </c>
+      <c r="M46">
+        <v>31</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K35">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L35">
-        <v>11</v>
-      </c>
-      <c r="M35">
-        <v>11</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>126</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="K47">
+        <v>0.6205882352941177</v>
+      </c>
+      <c r="L47">
+        <v>211</v>
+      </c>
+      <c r="M47">
+        <v>211</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K36">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L36">
-        <v>7</v>
-      </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L38">
-        <v>10</v>
-      </c>
-      <c r="M38">
-        <v>10</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.7671232876712328</v>
-      </c>
-      <c r="L40">
-        <v>56</v>
-      </c>
-      <c r="M40">
-        <v>56</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.76</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.75</v>
-      </c>
-      <c r="L42">
-        <v>9</v>
-      </c>
-      <c r="M42">
-        <v>9</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="L43">
-        <v>14</v>
-      </c>
-      <c r="M43">
-        <v>14</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L44">
-        <v>12</v>
-      </c>
-      <c r="M44">
-        <v>12</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K45">
-        <v>0.7</v>
-      </c>
-      <c r="L45">
-        <v>14</v>
-      </c>
-      <c r="M45">
-        <v>14</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K46">
-        <v>0.7</v>
-      </c>
-      <c r="L46">
-        <v>7</v>
-      </c>
-      <c r="M46">
-        <v>7</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47">
-        <v>0.7</v>
-      </c>
-      <c r="L47">
-        <v>7</v>
-      </c>
-      <c r="M47">
-        <v>7</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="K48">
-        <v>0.6956521739130435</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L48">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2795,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.6923076923076923</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2821,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.6805555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L50">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2847,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.6666666666666666</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2873,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.6511627906976745</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L52">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2899,21 +2578,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.6363636363636364</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2925,21 +2604,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.6153846153846154</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2956,16 +2635,16 @@
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.6071428571428571</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2977,21 +2656,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.6</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3003,21 +2682,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.5909090909090909</v>
+        <v>0.525</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3029,21 +2708,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.5714285714285714</v>
+        <v>0.484375</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3055,21 +2734,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.5526315789473685</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3081,21 +2760,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K60">
-        <v>0.55</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L60">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M60">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3107,21 +2786,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>0.5142857142857142</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3133,21 +2812,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K62">
-        <v>0.5</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L62">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3159,21 +2838,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K63">
-        <v>0.5</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3185,21 +2864,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K64">
-        <v>0.4444444444444444</v>
+        <v>0.02796420581655481</v>
       </c>
       <c r="L64">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3211,21 +2890,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>10</v>
+        <v>869</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K65">
-        <v>0.3783783783783784</v>
+        <v>0.02583333333333333</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3237,21 +2916,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K66">
-        <v>0.375</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L66">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3263,267 +2942,293 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>20</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K67">
-        <v>0.2222222222222222</v>
+        <v>0.01722391084093212</v>
       </c>
       <c r="L67">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>42</v>
+        <v>970</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K68">
-        <v>0.02631578947368421</v>
+        <v>0.01514531313958248</v>
       </c>
       <c r="L68">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M68">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>444</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K69">
-        <v>0.01951219512195122</v>
+        <v>0.01348314606741573</v>
       </c>
       <c r="L69">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="M69">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>402</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K70">
-        <v>0.0173697270471464</v>
+        <v>0.01074766355140187</v>
       </c>
       <c r="L70">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>396</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K71">
-        <v>0.01643192488262911</v>
+        <v>0.009017341040462428</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>419</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K72">
-        <v>0.008028545941123996</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="L72">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M72">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N72">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0.18</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1112</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K73">
-        <v>0.006876790830945559</v>
+        <v>0.008155583437892095</v>
       </c>
       <c r="L73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M73">
         <v>13</v>
       </c>
       <c r="N73">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1733</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K74">
-        <v>0.006033182503770739</v>
+        <v>0.007569386038687973</v>
       </c>
       <c r="L74">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M74">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>1977</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K75">
-        <v>0.005744125326370757</v>
+        <v>0.007211538461538462</v>
       </c>
       <c r="L75">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M75">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N75">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="O75">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1904</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K76">
-        <v>0.004478566858605247</v>
+        <v>0.006779004454774356</v>
       </c>
       <c r="L76">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M76">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N76">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O76">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>1556</v>
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K77">
+        <v>0.005939356048765239</v>
+      </c>
+      <c r="L77">
+        <v>19</v>
+      </c>
+      <c r="M77">
+        <v>21</v>
+      </c>
+      <c r="N77">
+        <v>0.9</v>
+      </c>
+      <c r="O77">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>3180</v>
       </c>
     </row>
   </sheetData>
